--- a/MISO/Constraint Analyses/Top Congestion Reports/Sep-24_RT.xlsx
+++ b/MISO/Constraint Analyses/Top Congestion Reports/Sep-24_RT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="94" documentId="8_{5AC24446-0BFD-4888-9652-08BEBA964F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A324DE0-3A8A-4C2A-8E27-77D67D1552A4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17400" yWindow="8670" windowWidth="28800" windowHeight="15150" xr2:uid="{2BAA6FBF-CD63-4D4A-83FE-E69DA7A35AD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" activeTab="1" xr2:uid="{2BAA6FBF-CD63-4D4A-83FE-E69DA7A35AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sep-24 RT Pk" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424A30FD-BE89-4828-BC6E-6CF55FA2C120}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -1836,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D81778-4B34-4579-BF8F-9B8131B37BD0}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
